--- a/tutorial/一分钟git课程目录.xlsx
+++ b/tutorial/一分钟git课程目录.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_git\GitOneMinute\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052629C-C99E-48EB-9BE9-5CA4E2708D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832931EC-76E8-40CD-9D40-A78B34D61881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13485" yWindow="1875" windowWidth="14025" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13485" yWindow="1875" windowWidth="14025" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程章节" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">课程章节!$A$2:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">课程章节!$A$2:$C$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>课程章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>创建多个分支：合并、变基</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉取、获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,11 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,7 +710,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -732,7 +728,7 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -743,7 +739,7 @@
         <v>3.1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,7 +748,7 @@
         <v>3.2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +757,7 @@
         <v>3.3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,7 +766,7 @@
         <v>3.4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -779,57 +775,48 @@
         <v>3.5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5">
-        <v>3.6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="15"/>
       <c r="B15" s="6">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="6">
         <v>4.3</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17" xr:uid="{11512862-FC33-4320-B559-8472E1DB366C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{11512862-FC33-4320-B559-8472E1DB366C}">
       <formula1>$G$3:$G$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/tutorial/一分钟git课程目录.xlsx
+++ b/tutorial/一分钟git课程目录.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_git\GitOneMinute\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832931EC-76E8-40CD-9D40-A78B34D61881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DEACCA-1B45-488A-ADB6-168B345EA6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="1875" windowWidth="14025" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="课程章节" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">课程章节!$A$2:$C$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">课程章节!$A$2:$C$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>课程章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,15 +114,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交整理：交互式变基与遴选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建一分钟Git的github仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成项目初始版本的搭建，编写源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交整理：压缩提交与提交信息整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4提交整理：提交的摘取（遴选）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,11 +646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -710,7 +714,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -728,7 +732,7 @@
         <v>2.5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -766,7 +770,7 @@
         <v>3.4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -775,48 +779,57 @@
         <v>3.5</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B15" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="6">
         <v>4.3</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{11512862-FC33-4320-B559-8472E1DB366C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G17" xr:uid="{11512862-FC33-4320-B559-8472E1DB366C}">
       <formula1>$G$3:$G$3</formula1>
     </dataValidation>
   </dataValidations>
